--- a/ESP32引脚分配.xlsx
+++ b/ESP32引脚分配.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Debug_E_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283B3AF6-7C04-44E5-A4DE-AD00922B0604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC78F6-A721-4728-861E-070E91456A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>引脚号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>不做为输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,6 +523,9 @@
       <c r="A11">
         <v>14</v>
       </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">

--- a/ESP32引脚分配.xlsx
+++ b/ESP32引脚分配.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Debug_E_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC78F6-A721-4728-861E-070E91456A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46BB3D-5CE8-4F99-994B-80498587466B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,16 +433,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,12 +450,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>39</v>
       </c>
@@ -463,7 +463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>34</v>
       </c>
@@ -471,7 +471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>35</v>
       </c>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>33</v>
       </c>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26</v>
       </c>
@@ -511,7 +511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>27</v>
       </c>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -527,7 +527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -535,17 +535,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -553,7 +553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -569,32 +569,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -602,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -610,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -634,7 +634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -666,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -674,7 +674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>

--- a/ESP32引脚分配.xlsx
+++ b/ESP32引脚分配.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Debug_E_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46BB3D-5CE8-4F99-994B-80498587466B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A60CF0-DA3C-490D-9F1B-B6FA7EB10F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>引脚号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED指示灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,6 +543,9 @@
       <c r="A13">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
